--- a/forecast_summary_B083R7PHMX.xlsx
+++ b/forecast_summary_B083R7PHMX.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1.470790546611503</v>
       </c>
       <c r="D2" t="n">
-        <v>12.85848656474787</v>
+        <v>11.5219419587381</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0.4523660566840086</v>
       </c>
       <c r="D3" t="n">
-        <v>10.8285304221656</v>
+        <v>10.08831791044538</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>0.1578044884346123</v>
       </c>
       <c r="D4" t="n">
-        <v>9.935573325953893</v>
+        <v>10.47072484183146</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>0.03267874860378907</v>
       </c>
       <c r="D5" t="n">
-        <v>9.616462704237076</v>
+        <v>10.44955244535063</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-0.4521055138162342</v>
       </c>
       <c r="D6" t="n">
-        <v>9.35287264373096</v>
+        <v>8.789663470793634</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-0.9822989598329925</v>
       </c>
       <c r="D7" t="n">
-        <v>9.47881239250234</v>
+        <v>9.669628092356003</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-0.8876160648977364</v>
       </c>
       <c r="D8" t="n">
-        <v>9.33196855204161</v>
+        <v>9.507572957088676</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-0.2630740474607223</v>
       </c>
       <c r="D9" t="n">
-        <v>10.56008673862079</v>
+        <v>9.948869089788635</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-0.06899225665268005</v>
       </c>
       <c r="D10" t="n">
-        <v>9.597133195394816</v>
+        <v>10.61908567678105</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-0.8958423866878742</v>
       </c>
       <c r="D11" t="n">
-        <v>9.173615369017728</v>
+        <v>10.03201919833529</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-2.028537462521406</v>
       </c>
       <c r="D12" t="n">
-        <v>7.798662984780506</v>
+        <v>7.970220961604229</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-2.257413508789775</v>
       </c>
       <c r="D13" t="n">
-        <v>7.601514209139476</v>
+        <v>8.152828005649537</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-1.576199651898817</v>
       </c>
       <c r="D14" t="n">
-        <v>8.732149508193334</v>
+        <v>9.207792403685646</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-1.492868106541261</v>
       </c>
       <c r="D15" t="n">
-        <v>8.895450777440162</v>
+        <v>9.243455527531363</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-3.251447686737298</v>
       </c>
       <c r="D16" t="n">
-        <v>7.409597481852885</v>
+        <v>6.139392840885863</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-6.015917956200932</v>
       </c>
       <c r="D17" t="n">
-        <v>4.068462477652663</v>
+        <v>4.533702992825331</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-7.405659885992828</v>
       </c>
       <c r="D18" t="n">
-        <v>2.073370073013399</v>
+        <v>3.227630026238822</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-6.00913483824479</v>
       </c>
       <c r="D19" t="n">
-        <v>4.058964276621897</v>
+        <v>4.229018799895898</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-2.988337367324064</v>
       </c>
       <c r="D20" t="n">
-        <v>7.232393647513439</v>
+        <v>7.60428459304358</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-0.8511607573763217</v>
       </c>
       <c r="D21" t="n">
-        <v>9.839614516623254</v>
+        <v>9.903872857186007</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 D DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
